--- a/medicine/Psychotrope/Addict___Fixions_et_narcotextes/Addict___Fixions_et_narcotextes.xlsx
+++ b/medicine/Psychotrope/Addict___Fixions_et_narcotextes/Addict___Fixions_et_narcotextes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Addict : Fixions et narcotextes (Crack Wars : Literature Addiction Mania en anglais) est une œuvre de la philosophe américaine Avital Ronell, parue en 1992, qui traite de la drogue et de la littérature. Elle est traduite par Daniel Loayza en 2009. Le livre présente des analyses sur la représentation des drogues dans la culture, comme la législation sur le crack, les métaphores de Madame Bovary de Gustave Flaubert et l'addiction dans Être et Temps de Martin Heidegger.
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">recension sur Mediapart
  Portail de la philosophie   Portail de la littérature   Portail sur les psychotropes                   </t>
